--- a/html/resources/ioaConditions/train1P2Block1.xlsx
+++ b/html/resources/ioaConditions/train1P2Block1.xlsx
@@ -22,28 +22,28 @@
     <t>imageLoc</t>
   </si>
   <si>
+    <t>trainingaudio/09_tipata1.wav</t>
+  </si>
+  <si>
     <t>trainingaudio/15_kopota1.wav</t>
   </si>
   <si>
-    <t>trainingaudio/04_kitoti1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa2.wav</t>
+    <t>trainingaudio/14_pokoto1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi2.wav</t>
+  </si>
+  <si>
+    <t>pngimages/09_plane.png</t>
   </si>
   <si>
     <t>pngimages/15_barrel.png</t>
   </si>
   <si>
-    <t>pngimages/04_ladder.png</t>
-  </si>
-  <si>
-    <t>pngimages/27_kiwi.png</t>
-  </si>
-  <si>
-    <t>pngimages/24_banana.png</t>
+    <t>pngimages/14_coffee.png</t>
+  </si>
+  <si>
+    <t>pngimages/19_burger.png</t>
   </si>
 </sst>
 </file>

--- a/html/resources/ioaConditions/train1P2Block1.xlsx
+++ b/html/resources/ioaConditions/train1P2Block1.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/09_tipata1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi2.wav</t>
+    <t>trainingaudio/09_tipata1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi2.mp3</t>
   </si>
   <si>
     <t>pngimages/09_plane.png</t>

--- a/html/resources/ioaConditions/train1P2Block1.xlsx
+++ b/html/resources/ioaConditions/train1P2Block1.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/09_tipata1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi2.mp3</t>
+    <t>trainingaudio/09_tipata1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi2.ogg</t>
   </si>
   <si>
     <t>pngimages/09_plane.png</t>

--- a/html/resources/ioaConditions/train1P2Block1.xlsx
+++ b/html/resources/ioaConditions/train1P2Block1.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/09_tipata1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi2.ogg</t>
+    <t>trainingaudio/09_tipata1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi2.wav</t>
   </si>
   <si>
     <t>pngimages/09_plane.png</t>
